--- a/data/trans_dic/P32E$calle_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Clase-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -978,7 +978,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$calle_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.0641230280148571</v>
+        <v>0.06412302801485709</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.2635506132543973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1121259922706618</v>
+        <v>0.1121259922706617</v>
       </c>
     </row>
     <row r="5">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2844465566266116</v>
+        <v>0.3443185229713274</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7762375652125904</v>
+        <v>0.7680612715326324</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3447238243074364</v>
+        <v>0.3259272336449094</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.1416819074742572</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1467437900632904</v>
+        <v>0.1467437900632903</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1440407566488477</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03882056994746635</v>
+        <v>0.04421012097460424</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4010114123142086</v>
+        <v>0.4180086913889617</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4660750703327209</v>
+        <v>0.4244386246149324</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3191351414581083</v>
+        <v>0.3390083580812177</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.03461326047107361</v>
+        <v>0.03461326047107362</v>
       </c>
     </row>
     <row r="11">
@@ -706,11 +706,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2014204769037389</v>
+        <v>0.2065692246408023</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.1537948859381641</v>
+        <v>0.1759281552349639</v>
       </c>
     </row>
     <row r="13">
@@ -757,11 +757,11 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1845411489301101</v>
+        <v>0.2140364909030124</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.1444308170078724</v>
+        <v>0.1396826729333413</v>
       </c>
     </row>
     <row r="16">
@@ -782,7 +782,7 @@
         <v>0.3514837896230251</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3822738547659255</v>
+        <v>0.3822738547659256</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2247392086142722</v>
+        <v>0.2102261164421376</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1087869756389462</v>
+        <v>0.1086284153274859</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2283890613529275</v>
+        <v>0.2325708170802097</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5970614970945238</v>
+        <v>0.5809722774926562</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6800269688140288</v>
+        <v>0.6619370092403221</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.54437910782298</v>
+        <v>0.5742047959791802</v>
       </c>
     </row>
     <row r="19">
@@ -831,10 +831,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.5333074246977078</v>
+        <v>0.5333074246977079</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.0728113540098803</v>
+        <v>0.07281135400988031</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.2154999922105184</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04983162392722082</v>
+        <v>0.05145165903344834</v>
       </c>
     </row>
     <row r="21">
@@ -868,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4593893153433269</v>
+        <v>0.4079338206978611</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5376521511054415</v>
+        <v>0.5335980742562845</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +892,7 @@
         <v>0.126593900762902</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1583305434278099</v>
+        <v>0.15833054342781</v>
       </c>
     </row>
     <row r="23">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1124539459173406</v>
+        <v>0.1140206815148377</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06101768248673762</v>
+        <v>0.04705427382710343</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1050232041877659</v>
+        <v>0.1093584297260689</v>
       </c>
     </row>
     <row r="24">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2434394498722789</v>
+        <v>0.2540016032321548</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2570664587618159</v>
+        <v>0.2268716294474862</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2184766141527059</v>
+        <v>0.2301647725483647</v>
       </c>
     </row>
     <row r="25">
@@ -1087,13 +1087,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5813</v>
+        <v>7036</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5028</v>
+        <v>4976</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9277</v>
+        <v>8771</v>
       </c>
     </row>
     <row r="8">
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1114</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="11">
@@ -1159,13 +1159,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6147</v>
+        <v>6408</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6235</v>
+        <v>5678</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9161</v>
+        <v>9732</v>
       </c>
     </row>
     <row r="12">
@@ -1229,11 +1229,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6439</v>
+        <v>6603</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5462</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="16">
@@ -1297,11 +1297,11 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7716</v>
+        <v>8950</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>8182</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="20">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9455</v>
+        <v>8844</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11538</v>
+        <v>11749</v>
       </c>
     </row>
     <row r="23">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25119</v>
+        <v>24442</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5745</v>
+        <v>5592</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27501</v>
+        <v>29008</v>
       </c>
     </row>
     <row r="24">
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>978</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="27">
@@ -1442,10 +1442,10 @@
         <v>6084</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6225</v>
+        <v>5528</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10556</v>
+        <v>10477</v>
       </c>
     </row>
     <row r="28">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>17734</v>
+        <v>17981</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3676</v>
+        <v>2835</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>22889</v>
+        <v>23833</v>
       </c>
     </row>
     <row r="31">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>38390</v>
+        <v>40056</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>15486</v>
+        <v>13667</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>47615</v>
+        <v>50162</v>
       </c>
     </row>
     <row r="32">
